--- a/test/test-测试.xlsx
+++ b/test/test-测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\Erlang\game\tool\xlsx2erl\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F6C1DE-ED60-471D-BB74-3B49DB01D91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4CB720-D7BB-4FA1-BA92-4C9F1AB0E054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{C06B211B-AE4D-4302-AB72-A66DC711F6A7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{C06B211B-AE4D-4302-AB72-A66DC711F6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="reward" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>"aadada"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{get_value1, [],[value1]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{get_mul,[value1],[value2,value3]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DB7517-173A-452D-956F-DF42E2157723}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,6 +689,12 @@
       <c r="A6" t="s">
         <v>50</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1076,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D530AFF1-B9D5-4220-8611-331463D2FC7E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
